--- a/GATEWAY/A1#111#ETNEIDEXX/Etneide/E-RIS/1.0/accreditamento-checklist_V8.2.5.xlsx
+++ b/GATEWAY/A1#111#ETNEIDEXX/Etneide/E-RIS/1.0/accreditamento-checklist_V8.2.5.xlsx
@@ -1719,24 +1719,6 @@
     <t>subject_application_version: 1.0</t>
   </si>
   <si>
-    <t>2025-05-26IT10:43:11Z</t>
-  </si>
-  <si>
-    <t>fc5999960c47915eb7998ebe01bb0639</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c7bb04d8a4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.e9c6ff8054^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT10:56:39Z</t>
-  </si>
-  <si>
-    <t>901c66998a91f95e1dc31caae215d406</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
@@ -1749,187 +1731,205 @@
     <t>Correzione dati invalidi, ritrasmissione per validazione</t>
   </si>
   <si>
-    <t>2025-05-26IT11:02:18Z</t>
-  </si>
-  <si>
-    <t>a7ed2f2bdad9a62cf351a2d37cc37d37</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.31c4380706^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT11:05:05Z</t>
-  </si>
-  <si>
-    <t>e0658172b8e0a5370c088ce3dd681581</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.bfd93cd7c7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>sI</t>
   </si>
   <si>
-    <t>2025-05-26IT11:46:40Z</t>
-  </si>
-  <si>
-    <t>4ffcb87349c93c65a3412788a4c9e36e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f21c4eb47c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT11:49:04Z</t>
-  </si>
-  <si>
-    <t>8bdeb559c71a74be38ce66403c814735</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0454ddb6ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT12:16:59Z</t>
-  </si>
-  <si>
-    <t>e0784520fa5df0d1c27cd07b66317aeb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.4665975e5d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT12:23:52Z</t>
-  </si>
-  <si>
-    <t>850a9c3e1a90292add060c11c952caee</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.3502883efb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT12:25:58Z</t>
-  </si>
-  <si>
-    <t>23ea797305bfba0ea708cbadc767e548</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.672c527cd3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT12:27:53Z</t>
-  </si>
-  <si>
-    <t>0b2718f03e8311a8c16810e210b7d36a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.6bc889a902^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT14:30:54Z</t>
-  </si>
-  <si>
-    <t>4de3e3673f5c5171f4690caf3abda319</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.302dc59d2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT14:32:27Z</t>
-  </si>
-  <si>
-    <t>7833d2eb8a773fd3112a7245ae02d892</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.873f61536e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT14:34:14Z</t>
-  </si>
-  <si>
-    <t>c9fe5bd0332e4005d4d7c43b8253423d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.7f9646d3fd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT14:35:58Z</t>
-  </si>
-  <si>
-    <t>99e9cdc2ff2f7bf1e30bd1445f592f10</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.d637045804^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT14:37:51Z</t>
-  </si>
-  <si>
-    <t>9d3f7eff07af73abd8f59cc119230b16</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.6cca431738^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT14:39:55Z</t>
-  </si>
-  <si>
-    <t>c4b47ffe0f83ad2b33dc4d0e0c5142a2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.1e06f8ca95^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT14:41:40Z</t>
-  </si>
-  <si>
-    <t>86b744499e96cb57664a6fe70143b1f9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.b0f4ec2772^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT14:45:14Z</t>
-  </si>
-  <si>
-    <t>2629883e126aa8daec5098a2519c1d08</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.211fecbeb7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT14:50:43Z</t>
-  </si>
-  <si>
-    <t>f6245e8c6c4219b7016d61c91c958e41</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.b4545c11c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT14:56:07Z</t>
-  </si>
-  <si>
-    <t>40c7ed649e71d56681cf3a20ea1b01ee</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.7da68130c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-05-26IT15:03:27Z</t>
-  </si>
-  <si>
-    <t>b7fd4a84c1d5ea2f0c91ecaa7513baea</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>2025-05-26IT15:10:15Z</t>
-  </si>
-  <si>
-    <t>92219fb403a22a815d991860bf813c0a</t>
-  </si>
-  <si>
     <t>Ritrasmissione per validazione</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:31:04Z</t>
+  </si>
+  <si>
+    <t>597a3beaa10a2387df738ecea90f0ed0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ed4d544816^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:35:39Z</t>
+  </si>
+  <si>
+    <t>22d9a85fe82dccfe864607fb431fa742</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.76341321b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:36:52Z</t>
+  </si>
+  <si>
+    <t>b374b9bed613af7d1fc71d3b596b9afd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c448b2491c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:38:02Z</t>
+  </si>
+  <si>
+    <t>46079236f2c6e79b114f015f42c18126</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c1cc27efd6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:39:04Z</t>
+  </si>
+  <si>
+    <t>fcaa8b27c0183fd8315f76f2e82c19d4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.7dfb1bbcdc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:40:06Z</t>
+  </si>
+  <si>
+    <t>89f000429e45cff92a1720825371567a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.bd370f5ee1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:42:45Z</t>
+  </si>
+  <si>
+    <t>a2a3e4dcdfbd90d1f3ec3161bdcef9e5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.014f36631d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:43:37Z</t>
+  </si>
+  <si>
+    <t>bde261bc7130eb8c5df6baddc9437310</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.80e53cff46^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:44:26Z</t>
+  </si>
+  <si>
+    <t>a1bb31c7f09de7175e1684f36b9c6606</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.abf9458e1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:45:27Z</t>
+  </si>
+  <si>
+    <t>ac07bd51eebb703343cc362e8bd85157</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.36a06f8f97^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:46:16Z</t>
+  </si>
+  <si>
+    <t>1ab0063fb1403a04febb2f4ab828cf8c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.7fc62bc689^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:47:03Z</t>
+  </si>
+  <si>
+    <t>dea454adbbbd72c754dc265329c78839</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.845ae8f6ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:47:49Z</t>
+  </si>
+  <si>
+    <t>d6c71b67799f56791601cf4fd99c3fd2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0c08f7edec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:48:41Z</t>
+  </si>
+  <si>
+    <t>bba672d97113d021d586b24f1a6ee2a0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.4bdd94d0f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:49:32Z</t>
+  </si>
+  <si>
+    <t>a678abdcd3f614f863877cee444efec9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c4f4b47fa1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:50:20Z</t>
+  </si>
+  <si>
+    <t>3591a28ef11484ffbd981936404a2166</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ec08c5abf8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:51:06Z</t>
+  </si>
+  <si>
+    <t>5ebb222f7d6704c84cac68487bb7efa8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.fd3c1ebca4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:52:59Z</t>
+  </si>
+  <si>
+    <t>881e302ff7d21e6acd511461c9a779c6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ca9ed07856^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:53:55Z</t>
+  </si>
+  <si>
+    <t>61d429247af928d29a8f54a76ebe0e2e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.1ca07ddf07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT15:54:40Z</t>
+  </si>
+  <si>
+    <t>2375c5bf5651cd1989c51ef253459252</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.fb433a359d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-05-27IT16:02:12Z</t>
+  </si>
+  <si>
+    <t>124180d6f255673354a68d497b8d30d0</t>
+  </si>
+  <si>
+    <t>2025-05-27IT16:03:36Z</t>
+  </si>
+  <si>
+    <t>4e707bf1ee2b6ff6f02ad6589ef10c16</t>
   </si>
 </sst>
 </file>
@@ -4002,10 +4002,10 @@
   <dimension ref="A1:W755"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R55" sqref="R55"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4013,9 +4013,11 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
-    <col min="6" max="9" width="33.140625" customWidth="1"/>
+    <col min="6" max="7" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="27.140625" customWidth="1"/>
@@ -4457,42 +4459,42 @@
         <v>43</v>
       </c>
       <c r="F14" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P14" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q14" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R14" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S14" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T14" s="38"/>
       <c r="U14" s="39"/>
@@ -4777,42 +4779,42 @@
         <v>55</v>
       </c>
       <c r="F22" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G22" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="H22" s="37" t="s">
         <v>509</v>
       </c>
-      <c r="H22" s="37" t="s">
-        <v>510</v>
-      </c>
       <c r="I22" s="42" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P22" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q22" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R22" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S22" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T22" s="38"/>
       <c r="U22" s="39"/>
@@ -5103,36 +5105,36 @@
         <v>244</v>
       </c>
       <c r="F30" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="42"/>
       <c r="J30" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="N30" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="O30" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="P30" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q30" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="R30" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="S30" s="38" t="s">
         <v>447</v>
-      </c>
-      <c r="N30" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="O30" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="P30" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q30" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="R30" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="S30" s="38" t="s">
-        <v>511</v>
       </c>
       <c r="T30" s="38"/>
       <c r="U30" s="39" t="s">
@@ -6019,16 +6021,16 @@
         <v>308</v>
       </c>
       <c r="F54" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="J54" s="38" t="s">
         <v>64</v>
@@ -6036,25 +6038,25 @@
       <c r="K54" s="38"/>
       <c r="L54" s="38"/>
       <c r="M54" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N54" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O54" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P54" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q54" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R54" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S54" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T54" s="38"/>
       <c r="U54" s="39"/>
@@ -6080,42 +6082,42 @@
         <v>100</v>
       </c>
       <c r="F55" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="I55" s="42" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="J55" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K55" s="38"/>
       <c r="L55" s="38"/>
       <c r="M55" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N55" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O55" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P55" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q55" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R55" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S55" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T55" s="38"/>
       <c r="U55" s="39"/>
@@ -6141,42 +6143,42 @@
         <v>309</v>
       </c>
       <c r="F56" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I56" s="42" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="J56" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K56" s="38"/>
       <c r="L56" s="38"/>
       <c r="M56" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N56" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O56" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P56" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q56" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R56" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S56" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T56" s="38"/>
       <c r="U56" s="39"/>
@@ -6202,42 +6204,42 @@
         <v>310</v>
       </c>
       <c r="F57" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="I57" s="42" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J57" s="38" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="K57" s="38"/>
       <c r="L57" s="38"/>
       <c r="M57" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N57" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O57" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P57" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q57" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R57" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S57" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T57" s="38"/>
       <c r="U57" s="39"/>
@@ -6263,16 +6265,16 @@
         <v>311</v>
       </c>
       <c r="F58" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G58" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="H58" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="I58" s="42" t="s">
         <v>462</v>
-      </c>
-      <c r="I58" s="42" t="s">
-        <v>463</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>64</v>
@@ -6280,25 +6282,25 @@
       <c r="K58" s="38"/>
       <c r="L58" s="38"/>
       <c r="M58" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N58" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O58" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P58" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q58" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R58" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S58" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T58" s="38"/>
       <c r="U58" s="39"/>
@@ -6324,16 +6326,16 @@
         <v>312</v>
       </c>
       <c r="F59" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H59" s="37" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="I59" s="42" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="J59" s="38" t="s">
         <v>64</v>
@@ -6341,25 +6343,25 @@
       <c r="K59" s="38"/>
       <c r="L59" s="38"/>
       <c r="M59" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N59" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O59" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P59" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q59" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R59" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S59" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T59" s="38"/>
       <c r="U59" s="39"/>
@@ -6385,16 +6387,16 @@
         <v>106</v>
       </c>
       <c r="F60" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I60" s="42" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J60" s="38" t="s">
         <v>64</v>
@@ -6402,25 +6404,25 @@
       <c r="K60" s="38"/>
       <c r="L60" s="38"/>
       <c r="M60" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N60" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O60" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P60" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q60" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R60" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S60" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T60" s="38"/>
       <c r="U60" s="39"/>
@@ -6446,16 +6448,16 @@
         <v>108</v>
       </c>
       <c r="F61" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I61" s="42" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J61" s="38" t="s">
         <v>64</v>
@@ -6463,25 +6465,25 @@
       <c r="K61" s="38"/>
       <c r="L61" s="38"/>
       <c r="M61" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N61" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O61" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P61" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q61" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R61" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S61" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T61" s="38"/>
       <c r="U61" s="39"/>
@@ -6507,16 +6509,16 @@
         <v>313</v>
       </c>
       <c r="F62" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G62" s="37" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I62" s="42" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J62" s="38" t="s">
         <v>64</v>
@@ -6524,25 +6526,25 @@
       <c r="K62" s="38"/>
       <c r="L62" s="38"/>
       <c r="M62" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N62" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O62" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P62" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q62" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R62" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S62" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T62" s="38"/>
       <c r="U62" s="39"/>
@@ -6568,16 +6570,16 @@
         <v>314</v>
       </c>
       <c r="F63" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="I63" s="42" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>64</v>
@@ -6585,25 +6587,25 @@
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
       <c r="M63" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N63" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O63" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P63" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q63" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R63" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S63" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T63" s="38"/>
       <c r="U63" s="39"/>
@@ -6629,16 +6631,16 @@
         <v>315</v>
       </c>
       <c r="F64" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I64" s="42" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J64" s="38" t="s">
         <v>64</v>
@@ -6646,25 +6648,25 @@
       <c r="K64" s="38"/>
       <c r="L64" s="38"/>
       <c r="M64" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N64" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O64" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P64" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q64" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R64" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S64" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T64" s="38"/>
       <c r="U64" s="39"/>
@@ -6690,16 +6692,16 @@
         <v>316</v>
       </c>
       <c r="F65" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G65" s="37" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I65" s="42" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J65" s="38" t="s">
         <v>64</v>
@@ -6707,25 +6709,25 @@
       <c r="K65" s="38"/>
       <c r="L65" s="38"/>
       <c r="M65" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N65" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O65" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P65" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q65" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R65" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S65" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T65" s="38"/>
       <c r="U65" s="39"/>
@@ -6751,16 +6753,16 @@
         <v>114</v>
       </c>
       <c r="F66" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H66" s="37" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I66" s="42" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J66" s="38" t="s">
         <v>64</v>
@@ -6768,25 +6770,25 @@
       <c r="K66" s="38"/>
       <c r="L66" s="38"/>
       <c r="M66" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N66" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O66" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P66" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q66" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R66" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S66" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T66" s="38"/>
       <c r="U66" s="39"/>
@@ -6812,16 +6814,16 @@
         <v>116</v>
       </c>
       <c r="F67" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H67" s="37" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="I67" s="42" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J67" s="38" t="s">
         <v>64</v>
@@ -6829,25 +6831,25 @@
       <c r="K67" s="38"/>
       <c r="L67" s="38"/>
       <c r="M67" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N67" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O67" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P67" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q67" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R67" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S67" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T67" s="38"/>
       <c r="U67" s="39"/>
@@ -6873,16 +6875,16 @@
         <v>317</v>
       </c>
       <c r="F68" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I68" s="42" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J68" s="38" t="s">
         <v>64</v>
@@ -6890,25 +6892,25 @@
       <c r="K68" s="38"/>
       <c r="L68" s="38"/>
       <c r="M68" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N68" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O68" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P68" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q68" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R68" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S68" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T68" s="38"/>
       <c r="U68" s="39"/>
@@ -6934,16 +6936,16 @@
         <v>367</v>
       </c>
       <c r="F69" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H69" s="37" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I69" s="42" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J69" s="38" t="s">
         <v>64</v>
@@ -6951,25 +6953,25 @@
       <c r="K69" s="38"/>
       <c r="L69" s="38"/>
       <c r="M69" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N69" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O69" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P69" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q69" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R69" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S69" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T69" s="38"/>
       <c r="U69" s="39"/>
@@ -6995,16 +6997,16 @@
         <v>318</v>
       </c>
       <c r="F70" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H70" s="37" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I70" s="42" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="J70" s="38" t="s">
         <v>64</v>
@@ -7012,25 +7014,25 @@
       <c r="K70" s="38"/>
       <c r="L70" s="38"/>
       <c r="M70" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N70" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O70" s="38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P70" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q70" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R70" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S70" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T70" s="38"/>
       <c r="U70" s="39"/>
@@ -11163,42 +11165,42 @@
         <v>402</v>
       </c>
       <c r="F182" s="45">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G182" s="35" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H182" s="35" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I182" s="38" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J182" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K182" s="38"/>
       <c r="L182" s="35"/>
       <c r="M182" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="N182" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="O182" s="35" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P182" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q182" s="38" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="R182" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="S182" s="38" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="T182" s="38"/>
       <c r="U182" s="35"/>
@@ -11520,19 +11522,19 @@
         <v>429</v>
       </c>
       <c r="F191" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G191" s="37" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H191" s="37" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I191" s="42" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J191" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K191" s="38"/>
       <c r="L191" s="38"/>
@@ -11567,19 +11569,19 @@
         <v>435</v>
       </c>
       <c r="F192" s="37">
-        <v>45803</v>
+        <v>45804</v>
       </c>
       <c r="G192" s="37" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H192" s="37" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I192" s="42" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J192" s="38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K192" s="38"/>
       <c r="L192" s="38"/>
@@ -17973,18 +17975,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -18242,6 +18232,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
@@ -18251,23 +18253,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18284,4 +18269,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>